--- a/tests/sample/cell_styled.xlsx
+++ b/tests/sample/cell_styled.xlsx
@@ -33,134 +33,135 @@
     <t>D1</t>
   </si>
   <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
     <t>E1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>E9</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -181,34 +182,40 @@
       <name val="Verdana"/>
     </font>
     <font>
+      <sz val="24"/>
+      <color indexed="8"/>
+      <name val="メイリオ"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="メイリオ"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="メイリオ"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.14999847407452621"/>
       <name val="メイリオ"/>
       <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="0"/>
-      <name val="メイリオ"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="24"/>
-      <color indexed="8"/>
-      <name val="メイリオ"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="24"/>
-      <color theme="0"/>
+      <color theme="0" tint="-0.14999847407452621"/>
       <name val="メイリオ"/>
       <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="24"/>
-      <color theme="0"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="メイリオ"/>
       <charset val="128"/>
     </font>
@@ -240,7 +247,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor theme="1" tint="0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,7 +410,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -415,28 +422,33 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1760,7 +1772,7 @@
   <dimension ref="A1:IV9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="7.625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0"/>
@@ -1774,156 +1786,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="37">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="62" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="19" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="19" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="19" customHeight="1">
       <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19" customHeight="1">
       <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="19" customHeight="1">
       <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="19" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19" customHeight="1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="19" customHeight="1">
       <c r="A8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="19" customHeight="1">
       <c r="A9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
